--- a/results/mp/logistic/corona/confidence/168/masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,69 +49,78 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>drop</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>falling</t>
+    <t>no</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>no</t>
+    <t>cut</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>prices</t>
-  </si>
-  <si>
     <t>of</t>
   </si>
   <si>
@@ -121,157 +130,157 @@
     <t>a</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>to</t>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>are</t>
   </si>
   <si>
     <t>and</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
     <t>for</t>
-  </si>
-  <si>
-    <t>,</t>
   </si>
   <si>
     <t>?</t>
@@ -643,10 +652,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -725,7 +734,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -754,13 +763,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.791095890410959</v>
+        <v>0.815068493150685</v>
       </c>
       <c r="C4">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D4">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,19 +781,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,13 +813,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7777777777777778</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +863,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7631578947368421</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -925,16 +934,16 @@
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,13 +963,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7567567567567568</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>0.835509138381201</v>
+        <v>0.8302872062663186</v>
       </c>
       <c r="L8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +1013,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7333333333333333</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1054,13 +1063,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5661375661375662</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C10">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L10">
         <v>47</v>
       </c>
-      <c r="K10">
-        <v>0.8297872340425532</v>
-      </c>
-      <c r="L10">
-        <v>39</v>
-      </c>
       <c r="M10">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1113,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.559322033898305</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>0.8046875</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,13 +1163,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5387596899224806</v>
+        <v>0.5661375661375662</v>
       </c>
       <c r="C12">
-        <v>278</v>
+        <v>107</v>
       </c>
       <c r="D12">
-        <v>278</v>
+        <v>107</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>238</v>
+        <v>82</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>0.7875</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L12">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="M12">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1196,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1213,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5098039215686274</v>
+        <v>0.55</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,19 +1231,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K13">
-        <v>0.7804878048780488</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L13">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M13">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,13 +1263,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4899328859060403</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C14">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1272,19 +1281,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K14">
-        <v>0.7758620689655172</v>
+        <v>0.78125</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,13 +1313,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.475</v>
+        <v>0.5368217054263565</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>277</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>277</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,19 +1331,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K15">
-        <v>0.7746478873239436</v>
+        <v>0.775</v>
       </c>
       <c r="L15">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="M15">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,13 +1363,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.44</v>
+        <v>0.5302013422818792</v>
       </c>
       <c r="C16">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="D16">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K16">
-        <v>0.7358490566037735</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L16">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,13 +1413,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4222222222222222</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="C17">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D17">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1422,19 +1431,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K17">
-        <v>0.717948717948718</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,13 +1463,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1472,19 +1481,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K18">
-        <v>0.7142857142857143</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1496,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,13 +1513,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3818181818181818</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K19">
-        <v>0.7037037037037037</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1546,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1554,13 +1563,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.375</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1572,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K20">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1596,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1604,13 +1613,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1622,19 +1631,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K21">
-        <v>0.6976744186046512</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1646,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1654,13 +1663,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2658730158730159</v>
+        <v>0.3</v>
       </c>
       <c r="C22">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1672,19 +1681,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K22">
-        <v>0.696969696969697</v>
+        <v>0.725</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1696,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1704,13 +1713,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1796246648793566</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C23">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1722,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>306</v>
+        <v>54</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K23">
-        <v>0.6944444444444444</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1746,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1754,13 +1763,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.09</v>
+        <v>0.2738095238095238</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D24">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1772,19 +1781,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>273</v>
+        <v>183</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K24">
-        <v>0.6785714285714286</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1796,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1804,37 +1813,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01904454486765655</v>
+        <v>0.25</v>
       </c>
       <c r="C25">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="E25">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>3039</v>
+        <v>60</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K25">
-        <v>0.6785714285714286</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1846,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1854,38 +1863,38 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01894918173987941</v>
+        <v>0.1528150134048257</v>
       </c>
       <c r="C26">
+        <v>57</v>
+      </c>
+      <c r="D26">
+        <v>57</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>316</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="L26">
         <v>22</v>
       </c>
-      <c r="D26">
+      <c r="M26">
         <v>22</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>1139</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L26">
-        <v>32</v>
-      </c>
-      <c r="M26">
-        <v>32</v>
-      </c>
       <c r="N26">
         <v>1</v>
       </c>
@@ -1896,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1904,37 +1913,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01853411962931761</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="C27">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D27">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E27">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>2330</v>
+        <v>265</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K27">
-        <v>0.638235294117647</v>
+        <v>0.6205882352941177</v>
       </c>
       <c r="L27">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M27">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1946,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1954,49 +1963,49 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01498829039812646</v>
+        <v>0.01896551724137931</v>
       </c>
       <c r="C28">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E28">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="F28">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>2103</v>
+        <v>1138</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K28">
-        <v>0.6307692307692307</v>
+        <v>0.608843537414966</v>
       </c>
       <c r="L28">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="M28">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>24</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2004,37 +2013,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0108837614279495</v>
+        <v>0.01615508885298869</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D29">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E29">
-        <v>0.32</v>
+        <v>0.19</v>
       </c>
       <c r="F29">
-        <v>0.6799999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>2272</v>
+        <v>3045</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K29">
-        <v>0.6285714285714286</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L29">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="M29">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2046,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2054,37 +2063,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.009923045767517213</v>
+        <v>0.01520912547528517</v>
       </c>
       <c r="C30">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D30">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="E30">
-        <v>0.54</v>
+        <v>0.25</v>
       </c>
       <c r="F30">
-        <v>0.46</v>
+        <v>0.75</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>4889</v>
+        <v>2331</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K30">
-        <v>0.6067796610169491</v>
+        <v>0.5955056179775281</v>
       </c>
       <c r="L30">
-        <v>179</v>
+        <v>53</v>
       </c>
       <c r="M30">
-        <v>179</v>
+        <v>53</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2096,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>116</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2104,37 +2113,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.00857365549493375</v>
+        <v>0.01078293483356775</v>
       </c>
       <c r="C31">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="E31">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
       <c r="F31">
-        <v>0.5700000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>5088</v>
+        <v>2110</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K31">
-        <v>0.5941422594142259</v>
+        <v>0.5899581589958159</v>
       </c>
       <c r="L31">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M31">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2146,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2154,37 +2163,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.008385744234800839</v>
+        <v>0.009598603839441536</v>
       </c>
       <c r="C32">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="E32">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="F32">
-        <v>0.51</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>4257</v>
+        <v>2270</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K32">
-        <v>0.5851063829787234</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L32">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2196,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2204,28 +2213,28 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.007243614182234084</v>
+        <v>0.009375</v>
       </c>
       <c r="C33">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D33">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="E33">
-        <v>0.72</v>
+        <v>0.48</v>
       </c>
       <c r="F33">
-        <v>0.28</v>
+        <v>0.52</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>2604</v>
+        <v>5072</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K33">
         <v>0.5600000000000001</v>
@@ -2250,69 +2259,141 @@
       </c>
     </row>
     <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.008886810102899906</v>
+      </c>
+      <c r="C34">
+        <v>38</v>
+      </c>
+      <c r="D34">
+        <v>90</v>
+      </c>
+      <c r="E34">
+        <v>0.58</v>
+      </c>
+      <c r="F34">
+        <v>0.42</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>4238</v>
+      </c>
       <c r="J34" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K34">
-        <v>0.5571428571428572</v>
+        <v>0.5</v>
       </c>
       <c r="L34">
+        <v>35</v>
+      </c>
+      <c r="M34">
+        <v>35</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.008257638315441783</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>43</v>
+      </c>
+      <c r="E35">
+        <v>0.53</v>
+      </c>
+      <c r="F35">
+        <v>0.47</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>2402</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K35">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="L35">
+        <v>22</v>
+      </c>
+      <c r="M35">
+        <v>22</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.007875605815831988</v>
+      </c>
+      <c r="C36">
         <v>39</v>
       </c>
-      <c r="M34">
-        <v>39</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="J35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K35">
-        <v>0.5280898876404494</v>
-      </c>
-      <c r="L35">
-        <v>47</v>
-      </c>
-      <c r="M35">
-        <v>47</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="D36">
+        <v>83</v>
+      </c>
+      <c r="E36">
+        <v>0.53</v>
+      </c>
+      <c r="F36">
+        <v>0.47</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>4913</v>
+      </c>
       <c r="J36" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K36">
-        <v>0.5098039215686274</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L36">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2324,21 +2405,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="J37" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K37">
-        <v>0.4222222222222222</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2350,21 +2431,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K38">
-        <v>0.3717948717948718</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L38">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2376,21 +2457,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K39">
-        <v>0.3698630136986301</v>
+        <v>0.296875</v>
       </c>
       <c r="L39">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2402,21 +2483,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K40">
-        <v>0.3559322033898305</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L40">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2428,21 +2509,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K41">
-        <v>0.34375</v>
+        <v>0.1743119266055046</v>
       </c>
       <c r="L41">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2454,345 +2535,345 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K42">
-        <v>0.1962616822429906</v>
+        <v>0.05484460694698354</v>
       </c>
       <c r="L42">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N42">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>86</v>
+        <v>517</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K43">
-        <v>0.1532258064516129</v>
+        <v>0.05425709515859766</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="M43">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>105</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K44">
-        <v>0.04765886287625418</v>
+        <v>0.04567307692307692</v>
       </c>
       <c r="L44">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="N44">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>1139</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K45">
-        <v>0.03473491773308958</v>
+        <v>0.02113459399332592</v>
       </c>
       <c r="L45">
         <v>19</v>
       </c>
       <c r="M45">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>528</v>
+        <v>880</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K46">
+        <v>0.01650943396226415</v>
+      </c>
+      <c r="L46">
+        <v>21</v>
+      </c>
+      <c r="M46">
         <v>38</v>
       </c>
-      <c r="K46">
-        <v>0.01883948756593821</v>
-      </c>
-      <c r="L46">
-        <v>50</v>
-      </c>
-      <c r="M46">
-        <v>69</v>
-      </c>
       <c r="N46">
-        <v>0.72</v>
+        <v>0.55</v>
       </c>
       <c r="O46">
-        <v>0.28</v>
+        <v>0.45</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>2604</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K47">
-        <v>0.01730920535011802</v>
+        <v>0.01540774145058249</v>
       </c>
       <c r="L47">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M47">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="N47">
-        <v>0.55</v>
+        <v>0.77</v>
       </c>
       <c r="O47">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>1249</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K48">
-        <v>0.01704545454545454</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="L48">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M48">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N48">
-        <v>0.73</v>
+        <v>0.59</v>
       </c>
       <c r="O48">
-        <v>0.27</v>
+        <v>0.41</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>1557</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K49">
-        <v>0.01522633744855967</v>
+        <v>0.01254705144291092</v>
       </c>
       <c r="L49">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M49">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="N49">
-        <v>0.71</v>
+        <v>0.91</v>
       </c>
       <c r="O49">
-        <v>0.29</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>2393</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="K50">
-        <v>0.01462599247806101</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="L50">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="M50">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="N50">
-        <v>0.97</v>
+        <v>0.58</v>
       </c>
       <c r="O50">
-        <v>0.03000000000000003</v>
+        <v>0.42</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>2358</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="K51">
-        <v>0.0117242773398019</v>
+        <v>0.009736180904522614</v>
       </c>
       <c r="L51">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="M51">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="N51">
-        <v>0.54</v>
+        <v>0.65</v>
       </c>
       <c r="O51">
-        <v>0.46</v>
+        <v>0.35</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>4889</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="K52">
-        <v>0.01162425384857053</v>
+        <v>0.009484536082474227</v>
       </c>
       <c r="L52">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M52">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N52">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="O52">
-        <v>0.33</v>
+        <v>0.47</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>3146</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K53">
-        <v>0.008154706430568499</v>
+        <v>0.008876336493847085</v>
       </c>
       <c r="L53">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M53">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="N53">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="O53">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>4257</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K54">
-        <v>0.006444053895723492</v>
+        <v>0.008794215360562829</v>
       </c>
       <c r="L54">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M54">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="N54">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="O54">
-        <v>0.5700000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>5088</v>
+        <v>5072</v>
       </c>
     </row>
   </sheetData>
